--- a/biology/Zoologie/Cephalodiscida/Cephalodiscida.xlsx
+++ b/biology/Zoologie/Cephalodiscida/Cephalodiscida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cephalodiscoidea
 Les Cephalodiscida sont un ordre d'animaux ptérobranches.
@@ -512,9 +524,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour le World Register of Marine Species                               (21 avril 2022)[1], cet ordre porte le nom de Cephalodiscoidea Beklemishev, 1951 et fait partie de la classe des Graptolithoidea Beklemishev, 1951.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour le World Register of Marine Species                               (21 avril 2022), cet ordre porte le nom de Cephalodiscoidea Beklemishev, 1951 et fait partie de la classe des Graptolithoidea Beklemishev, 1951.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On note une transformation de la proboscis en couronne de tentacules (régression qui les fait imiter les Lophophoronidés) ce qui procure un mode de nutrition suspensivore. Comme exemple, on peut citer Cephalodiscus grafilis.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (21 avril 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (21 avril 2022) :
 famille des Cephalodiscidae Harmer, 1905</t>
         </is>
       </c>
